--- a/biology/Histoire de la zoologie et de la botanique/Nobusuke_Takatsukasa/Nobusuke_Takatsukasa.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Nobusuke_Takatsukasa/Nobusuke_Takatsukasa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le duc Nobusuke Takatsukasa (鷹司 信輔?) (29 avril 1889 - 1er février 1959), fils de Takatsukasa Hiromichi, est un homme politique de l'ère Meiji (1868–1912) membre de la Chambre des pairs du Japon de la Diète du Japon. Son frère est Nobuhiro Takatsukasa et son fils Toshimichi Takatsukasa.
 </t>
